--- a/cards_data.xlsx
+++ b/cards_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s121917\Downloads\nike_pars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AFE09E-507A-49BE-9C9F-3982CDF65217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60DE98-01CC-4A18-B393-4D4B5C65BA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="60">
   <si>
     <t>Группы</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Изображение</t>
   </si>
   <si>
-    <t>Артикул</t>
+    <t>Характеристика:Артикул</t>
   </si>
   <si>
     <t>Цена: Цена продажи</t>
@@ -50,6 +50,156 @@
   </si>
   <si>
     <t>Характеристика:Размер</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>доллар</t>
+  </si>
+  <si>
+    <t>DV9956-118</t>
+  </si>
+  <si>
+    <t>M 3.5 / W 5</t>
+  </si>
+  <si>
+    <t>M 4 / W 5.5</t>
+  </si>
+  <si>
+    <t>M 4.5 / W 6</t>
+  </si>
+  <si>
+    <t>M 5 / W 6.5</t>
+  </si>
+  <si>
+    <t>M 5.5 / W 7</t>
+  </si>
+  <si>
+    <t>M 6 / W 7.5</t>
+  </si>
+  <si>
+    <t>M 6.5 / W 8</t>
+  </si>
+  <si>
+    <t>M 7 / W 8.5</t>
+  </si>
+  <si>
+    <t>M 7.5 / W 9</t>
+  </si>
+  <si>
+    <t>M 8 / W 9.5</t>
+  </si>
+  <si>
+    <t>M 8.5 / W 10</t>
+  </si>
+  <si>
+    <t>M 9 / W 10.5</t>
+  </si>
+  <si>
+    <t>M 9.5 / W 11</t>
+  </si>
+  <si>
+    <t>M 10 / W 11.5</t>
+  </si>
+  <si>
+    <t>M 10.5 / W 12</t>
+  </si>
+  <si>
+    <t>M 11 / W 12.5</t>
+  </si>
+  <si>
+    <t>M 11.5 / W 13</t>
+  </si>
+  <si>
+    <t>M 12 / W 13.5</t>
+  </si>
+  <si>
+    <t>M 12.5 / W 14</t>
+  </si>
+  <si>
+    <t>M 13 / W 14.5</t>
+  </si>
+  <si>
+    <t>M 14 / W 15.5</t>
+  </si>
+  <si>
+    <t>M 15 / W 16.5</t>
+  </si>
+  <si>
+    <t>M 16 / W 17.5</t>
+  </si>
+  <si>
+    <t>M 17 / W 18.5</t>
+  </si>
+  <si>
+    <t>M 18 / W 19.5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>CT8529-100</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>93.97</t>
+  </si>
+  <si>
+    <t>553558-075</t>
+  </si>
+  <si>
+    <t>553558-063</t>
+  </si>
+  <si>
+    <t>553558-066</t>
+  </si>
+  <si>
+    <t>553558-093</t>
+  </si>
+  <si>
+    <t>553558-163</t>
+  </si>
+  <si>
+    <t>553558-136</t>
+  </si>
+  <si>
+    <t>553558-412</t>
+  </si>
+  <si>
+    <t>553558-215</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>DQ8426-215</t>
+  </si>
+  <si>
+    <t>FD1029-400</t>
+  </si>
+  <si>
+    <t>DQ8426-014</t>
+  </si>
+  <si>
+    <t>DQ8426-060</t>
+  </si>
+  <si>
+    <t>DQ8426-517</t>
+  </si>
+  <si>
+    <t>DQ8426-615</t>
   </si>
 </sst>
 </file>
@@ -402,13 +552,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="211.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -442,6 +598,1941 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>49</v>
+      </c>
+      <c r="I77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
+        <v>42</v>
+      </c>
+      <c r="J89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+      <c r="I93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I104" t="s">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>54</v>
+      </c>
+      <c r="I105" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>54</v>
+      </c>
+      <c r="I106" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>54</v>
+      </c>
+      <c r="I108" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>54</v>
+      </c>
+      <c r="I110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" t="s">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>54</v>
+      </c>
+      <c r="I112" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" t="s">
+        <v>52</v>
+      </c>
+      <c r="J113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" t="s">
+        <v>52</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>55</v>
+      </c>
+      <c r="I115" t="s">
+        <v>52</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" t="s">
+        <v>52</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>55</v>
+      </c>
+      <c r="I117" t="s">
+        <v>52</v>
+      </c>
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>55</v>
+      </c>
+      <c r="I118" t="s">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>55</v>
+      </c>
+      <c r="I119" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>55</v>
+      </c>
+      <c r="I120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>55</v>
+      </c>
+      <c r="I122" t="s">
+        <v>52</v>
+      </c>
+      <c r="J122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I123" t="s">
+        <v>52</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>55</v>
+      </c>
+      <c r="I124" t="s">
+        <v>52</v>
+      </c>
+      <c r="J124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>55</v>
+      </c>
+      <c r="I125" t="s">
+        <v>52</v>
+      </c>
+      <c r="J125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>55</v>
+      </c>
+      <c r="I126" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>55</v>
+      </c>
+      <c r="I127" t="s">
+        <v>52</v>
+      </c>
+      <c r="J127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>55</v>
+      </c>
+      <c r="I128" t="s">
+        <v>52</v>
+      </c>
+      <c r="J128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>55</v>
+      </c>
+      <c r="I129" t="s">
+        <v>52</v>
+      </c>
+      <c r="J129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>55</v>
+      </c>
+      <c r="I130" t="s">
+        <v>52</v>
+      </c>
+      <c r="J130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>55</v>
+      </c>
+      <c r="I131" t="s">
+        <v>52</v>
+      </c>
+      <c r="J131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>55</v>
+      </c>
+      <c r="I132" t="s">
+        <v>52</v>
+      </c>
+      <c r="J132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>55</v>
+      </c>
+      <c r="I133" t="s">
+        <v>52</v>
+      </c>
+      <c r="J133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>55</v>
+      </c>
+      <c r="I134" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>56</v>
+      </c>
+      <c r="I135" t="s">
+        <v>52</v>
+      </c>
+      <c r="J135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>56</v>
+      </c>
+      <c r="I136" t="s">
+        <v>52</v>
+      </c>
+      <c r="J136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>56</v>
+      </c>
+      <c r="I137" t="s">
+        <v>52</v>
+      </c>
+      <c r="J137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" t="s">
+        <v>52</v>
+      </c>
+      <c r="J138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>56</v>
+      </c>
+      <c r="I139" t="s">
+        <v>52</v>
+      </c>
+      <c r="J139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>56</v>
+      </c>
+      <c r="I140" t="s">
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>56</v>
+      </c>
+      <c r="I141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>56</v>
+      </c>
+      <c r="I142" t="s">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>56</v>
+      </c>
+      <c r="I143" t="s">
+        <v>52</v>
+      </c>
+      <c r="J143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>56</v>
+      </c>
+      <c r="I144" t="s">
+        <v>52</v>
+      </c>
+      <c r="J144" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>57</v>
+      </c>
+      <c r="I145" t="s">
+        <v>52</v>
+      </c>
+      <c r="J145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>57</v>
+      </c>
+      <c r="I146" t="s">
+        <v>52</v>
+      </c>
+      <c r="J146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" t="s">
+        <v>52</v>
+      </c>
+      <c r="J147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>57</v>
+      </c>
+      <c r="I148" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>57</v>
+      </c>
+      <c r="I149" t="s">
+        <v>52</v>
+      </c>
+      <c r="J149" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>57</v>
+      </c>
+      <c r="I150" t="s">
+        <v>52</v>
+      </c>
+      <c r="J150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>57</v>
+      </c>
+      <c r="I151" t="s">
+        <v>52</v>
+      </c>
+      <c r="J151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>57</v>
+      </c>
+      <c r="I152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>57</v>
+      </c>
+      <c r="I153" t="s">
+        <v>52</v>
+      </c>
+      <c r="J153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>57</v>
+      </c>
+      <c r="I154" t="s">
+        <v>52</v>
+      </c>
+      <c r="J154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>57</v>
+      </c>
+      <c r="I155" t="s">
+        <v>52</v>
+      </c>
+      <c r="J155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>57</v>
+      </c>
+      <c r="I156" t="s">
+        <v>52</v>
+      </c>
+      <c r="J156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>57</v>
+      </c>
+      <c r="I157" t="s">
+        <v>52</v>
+      </c>
+      <c r="J157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>57</v>
+      </c>
+      <c r="I158" t="s">
+        <v>52</v>
+      </c>
+      <c r="J158" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>58</v>
+      </c>
+      <c r="I159" t="s">
+        <v>52</v>
+      </c>
+      <c r="J159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>58</v>
+      </c>
+      <c r="I160" t="s">
+        <v>52</v>
+      </c>
+      <c r="J160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>58</v>
+      </c>
+      <c r="I161" t="s">
+        <v>52</v>
+      </c>
+      <c r="J161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>58</v>
+      </c>
+      <c r="I162" t="s">
+        <v>52</v>
+      </c>
+      <c r="J162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>58</v>
+      </c>
+      <c r="I163" t="s">
+        <v>52</v>
+      </c>
+      <c r="J163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>58</v>
+      </c>
+      <c r="I164" t="s">
+        <v>52</v>
+      </c>
+      <c r="J164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>58</v>
+      </c>
+      <c r="I165" t="s">
+        <v>52</v>
+      </c>
+      <c r="J165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>58</v>
+      </c>
+      <c r="I166" t="s">
+        <v>52</v>
+      </c>
+      <c r="J166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>58</v>
+      </c>
+      <c r="I167" t="s">
+        <v>52</v>
+      </c>
+      <c r="J167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>58</v>
+      </c>
+      <c r="I168" t="s">
+        <v>52</v>
+      </c>
+      <c r="J168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>58</v>
+      </c>
+      <c r="I169" t="s">
+        <v>52</v>
+      </c>
+      <c r="J169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>58</v>
+      </c>
+      <c r="I170" t="s">
+        <v>52</v>
+      </c>
+      <c r="J170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>58</v>
+      </c>
+      <c r="I171" t="s">
+        <v>52</v>
+      </c>
+      <c r="J171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>58</v>
+      </c>
+      <c r="I172" t="s">
+        <v>52</v>
+      </c>
+      <c r="J172" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>59</v>
+      </c>
+      <c r="I173" t="s">
+        <v>52</v>
+      </c>
+      <c r="J173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>59</v>
+      </c>
+      <c r="I174" t="s">
+        <v>52</v>
+      </c>
+      <c r="J174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>59</v>
+      </c>
+      <c r="I175" t="s">
+        <v>52</v>
+      </c>
+      <c r="J175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>59</v>
+      </c>
+      <c r="I176" t="s">
+        <v>52</v>
+      </c>
+      <c r="J176" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>59</v>
+      </c>
+      <c r="I177" t="s">
+        <v>52</v>
+      </c>
+      <c r="J177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>59</v>
+      </c>
+      <c r="I178" t="s">
+        <v>52</v>
+      </c>
+      <c r="J178" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
